--- a/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
+++ b/Lexis-GLOBAL/Coredata/TOKEN_VALIDATION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI\Lexis-GLOBAL\Coredata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adapp\git\AutoAPI_AdminPortal\Lexis-GLOBAL\Coredata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC9765-1D3A-4813-8EC4-2AEEB4735D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB11E05-8C6D-4187-BC09-5CEEAAB9F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t>Data12</t>
   </si>
   <si>
-    <t>api/v1/Account/token</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Token Validation for all users with valid credentials</t>
+  </si>
+  <si>
+    <t>Account/token</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,8 +769,8 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -860,8 +863,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>101</v>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -870,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -920,7 +923,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -978,7 +981,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,7 +989,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1027,7 +1030,7 @@
       <c r="R4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="3"/>
@@ -1036,15 +1039,15 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -1085,7 +1088,7 @@
       <c r="R5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="T5" s="3"/>
@@ -1094,7 +1097,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -1143,7 +1146,7 @@
       <c r="R6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="T6" s="3"/>
@@ -1152,7 +1155,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -1201,7 +1204,7 @@
       <c r="R7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="3"/>
@@ -1219,7 +1222,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,52 +1254,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>7</v>
@@ -1309,8 +1312,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1319,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1369,7 +1372,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1430,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1485,7 +1488,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -1543,7 +1546,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -1601,7 +1604,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -1659,8 +1662,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>96</v>
+      <c r="B8" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1669,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -1719,7 +1722,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -1777,7 +1780,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1835,7 +1838,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1893,7 +1896,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1951,7 +1954,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -2009,8 +2012,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>97</v>
+      <c r="B14" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -2019,7 +2022,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -2069,7 +2072,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -2127,7 +2130,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -2185,7 +2188,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -2243,7 +2246,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -2301,7 +2304,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -2359,8 +2362,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>98</v>
+      <c r="B20" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -2369,7 +2372,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -2419,7 +2422,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2477,7 +2480,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -2535,7 +2538,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -2593,7 +2596,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -2651,7 +2654,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -2709,8 +2712,8 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>99</v>
+      <c r="B26" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -2719,7 +2722,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -2769,7 +2772,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -2827,7 +2830,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -2885,7 +2888,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -2943,7 +2946,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -3001,7 +3004,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -3059,8 +3062,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>100</v>
+      <c r="B32" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
@@ -3069,7 +3072,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -3119,7 +3122,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -3177,7 +3180,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -3235,7 +3238,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -3293,7 +3296,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -3351,7 +3354,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
